--- a/info/metricas/NN/RELU/NN2.xlsx
+++ b/info/metricas/NN/RELU/NN2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,31 +495,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.513187366555214</v>
+        <v>0.1617339344013168</v>
       </c>
       <c r="C2" t="n">
-        <v>563624.2368677607</v>
+        <v>311347.9672504553</v>
       </c>
       <c r="D2" t="n">
-        <v>461.0985258040057</v>
+        <v>330.3354931813502</v>
       </c>
       <c r="E2" t="n">
-        <v>183.3586819458008</v>
+        <v>143.8814685058594</v>
       </c>
       <c r="F2" t="n">
-        <v>11719741.23036041</v>
+        <v>1679425.647333984</v>
       </c>
       <c r="G2" t="n">
-        <v>2682.628681945801</v>
+        <v>2259.387147216797</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01542795811016506</v>
+        <v>0.2979039639194916</v>
       </c>
       <c r="I2" t="n">
-        <v>2.343209783589916e+16</v>
+        <v>8.261632059273682e+16</v>
       </c>
       <c r="J2" t="n">
-        <v>708119.8580010828</v>
+        <v>-1419.714015870002</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -537,31 +537,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7776150528057943</v>
+        <v>0.7935450073428555</v>
       </c>
       <c r="C3" t="n">
-        <v>82524.60769543554</v>
+        <v>76897.05763062301</v>
       </c>
       <c r="D3" t="n">
-        <v>184.5324452224106</v>
+        <v>182.8754455415139</v>
       </c>
       <c r="E3" t="n">
-        <v>117.1150323486328</v>
+        <v>106.5779165649414</v>
       </c>
       <c r="F3" t="n">
-        <v>4690261.16021801</v>
+        <v>929738.7651330566</v>
       </c>
       <c r="G3" t="n">
-        <v>3770.176181640625</v>
+        <v>1929.212768554688</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7776671412303311</v>
+        <v>0.793546356175264</v>
       </c>
       <c r="I3" t="n">
-        <v>5.31969198340963e+16</v>
+        <v>8.031492436203744e+16</v>
       </c>
       <c r="J3" t="n">
-        <v>-666587.3364522378</v>
+        <v>-132977.8671624524</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -569,6 +569,342 @@
         </is>
       </c>
       <c r="L3" t="inlineStr">
+        <is>
+          <t>RELU2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7892865301579756</v>
+      </c>
+      <c r="C4" t="n">
+        <v>78533.22110213214</v>
+      </c>
+      <c r="D4" t="n">
+        <v>182.6870381114128</v>
+      </c>
+      <c r="E4" t="n">
+        <v>101.4514538574218</v>
+      </c>
+      <c r="F4" t="n">
+        <v>928780.9017584228</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2155.23681640625</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.789287589462388</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.462180592043261e+16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-128059.0524976503</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>RELU2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7975543443986381</v>
+      </c>
+      <c r="C5" t="n">
+        <v>73709.42522024405</v>
+      </c>
+      <c r="D5" t="n">
+        <v>179.5406956937236</v>
+      </c>
+      <c r="E5" t="n">
+        <v>101.0362100219727</v>
+      </c>
+      <c r="F5" t="n">
+        <v>912784.8969068909</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1727.802490234375</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7975654215048675</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.723440103814711e+16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-129223.2511196633</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>RELU2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7936603807490574</v>
+      </c>
+      <c r="C6" t="n">
+        <v>76680.26868517198</v>
+      </c>
+      <c r="D6" t="n">
+        <v>181.3042784949585</v>
+      </c>
+      <c r="E6" t="n">
+        <v>101.3457983398438</v>
+      </c>
+      <c r="F6" t="n">
+        <v>921569.6475898742</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2187.376220703125</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.7937552102432835</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.196304660002684e+16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-124119.4516492366</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>RELU2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7915642814565782</v>
+      </c>
+      <c r="C7" t="n">
+        <v>76211.85410142431</v>
+      </c>
+      <c r="D7" t="n">
+        <v>182.9278217230569</v>
+      </c>
+      <c r="E7" t="n">
+        <v>107.9547039794922</v>
+      </c>
+      <c r="F7" t="n">
+        <v>929822.1178182983</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2189.360849609375</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.7915719285796058</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.280279294186456e+16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-127728.2915435817</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>RELU2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7880383308398183</v>
+      </c>
+      <c r="C8" t="n">
+        <v>78100.21908214991</v>
+      </c>
+      <c r="D8" t="n">
+        <v>182.8267101638317</v>
+      </c>
+      <c r="E8" t="n">
+        <v>103.7351159667969</v>
+      </c>
+      <c r="F8" t="n">
+        <v>929308.1677627563</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2099.530478515625</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.7880411030448454</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.662385270483677e+16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-119749.9581573869</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>RELU2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7712352634389223</v>
+      </c>
+      <c r="C9" t="n">
+        <v>83275.44248280283</v>
+      </c>
+      <c r="D9" t="n">
+        <v>183.6830309481624</v>
+      </c>
+      <c r="E9" t="n">
+        <v>109.702278137207</v>
+      </c>
+      <c r="F9" t="n">
+        <v>933660.8463095092</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2641.587158203125</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.7715787097846534</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.95445771404973e+16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-149231.4948229352</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>RELU2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7831844071952818</v>
+      </c>
+      <c r="C10" t="n">
+        <v>84285.47175605284</v>
+      </c>
+      <c r="D10" t="n">
+        <v>186.2799718949046</v>
+      </c>
+      <c r="E10" t="n">
+        <v>115.8933325195312</v>
+      </c>
+      <c r="F10" t="n">
+        <v>946861.0971418</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3232.571396484375</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.7831866126690112</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.405039368667958e+16</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-136426.7067263451</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>RELU2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7861057995758707</v>
+      </c>
+      <c r="C11" t="n">
+        <v>80842.40149097989</v>
+      </c>
+      <c r="D11" t="n">
+        <v>186.5703894429467</v>
+      </c>
+      <c r="E11" t="n">
+        <v>115.214033203125</v>
+      </c>
+      <c r="F11" t="n">
+        <v>948337.2895384979</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2339.16162109375</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.7861488605986753</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.746969877393071e+16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-141105.1323588259</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>RELU2</t>
         </is>
